--- a/Finflux Automation Excels/Client/4935-RBI-EI-DB-DL-RECAL-COMP-DL-1-preclose.xlsx
+++ b/Finflux Automation Excels/Client/4935-RBI-EI-DB-DL-RECAL-COMP-DL-1-preclose.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>clickonmakerepayment</t>
   </si>
@@ -43,9 +43,6 @@
     <t>click</t>
   </si>
   <si>
-    <t>Foreclosuretransactiondate</t>
-  </si>
-  <si>
     <t>Submitbutton</t>
   </si>
   <si>
@@ -73,12 +70,6 @@
     <t>Principal</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>Interest(%)</t>
-  </si>
-  <si>
     <t>Fees</t>
   </si>
   <si>
@@ -143,13 +134,16 @@
   </si>
   <si>
     <t>Preclose</t>
+  </si>
+  <si>
+    <t>Interest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,9 +160,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -203,30 +207,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,40 +562,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
-        <v>42090</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -605,112 +601,112 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>10000</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>10000</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>264.89</v>
-      </c>
-      <c r="B3" s="6">
-        <v>244.68</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="A3" s="3">
+        <v>277.97000000000003</v>
+      </c>
+      <c r="B3" s="3">
+        <v>257.76</v>
+      </c>
+      <c r="C3" s="3">
         <v>20.21</v>
       </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -724,7 +720,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,97 +732,94 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="L1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="O1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>13</v>
+      <c r="Q1" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="8">
         <v>42005</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="7">
         <v>10000</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>31</v>
       </c>
       <c r="C3" s="8">
@@ -835,47 +828,47 @@
       <c r="D3" s="8">
         <v>42057</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6">
+      <c r="E3" s="9"/>
+      <c r="F3" s="3">
         <v>785.8</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>101.92</v>
       </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
         <v>887.72</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="3">
         <v>887.72</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
         <v>887.72</v>
       </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>21</v>
       </c>
       <c r="C4" s="8">
@@ -884,96 +877,96 @@
       <c r="D4" s="8">
         <v>42057</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
+      <c r="E4" s="9"/>
+      <c r="F4" s="3">
         <v>431.24</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>8782.9599999999991</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>69.040000000000006</v>
       </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
         <v>69.040000000000006</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="3">
         <v>500.28</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
         <v>431.24</v>
       </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6">
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>7</v>
       </c>
       <c r="C5" s="8">
         <v>42064</v>
       </c>
       <c r="D5" s="8">
-        <v>42090</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
+        <v>42095</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="3">
         <v>867.51</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>7915.45</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <v>20.21</v>
       </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
         <v>887.72</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="3">
         <v>867.51</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
         <v>867.51</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="3">
         <v>20.21</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>21</v>
       </c>
       <c r="C6" s="8">
@@ -982,88 +975,88 @@
       <c r="D6" s="8">
         <v>42085</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="E6" s="9"/>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
         <v>7915.45</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="3">
         <v>60.64</v>
       </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
         <v>60.64</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="3">
         <v>60.64</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <v>5</v>
+      <c r="B7" s="3">
+        <v>10</v>
       </c>
       <c r="C7" s="8">
-        <v>42090</v>
+        <v>42095</v>
       </c>
       <c r="D7" s="8">
-        <v>42090</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="9">
+        <v>42095</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10">
         <v>7915.45</v>
       </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>13.08</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>13.08</v>
-      </c>
-      <c r="L7" s="9">
-        <v>7928.53</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9">
-        <v>7915.45</v>
-      </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>26.16</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>887.72</v>
+      </c>
+      <c r="L7" s="10">
+        <v>7941.61</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10">
+        <v>7053.89</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1074,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,197 +1085,209 @@
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>464</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C2" s="8">
+        <v>42095</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>84</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="8">
-        <v>42090</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="9">
-        <v>7968.68</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="E2" s="10">
+        <v>7981.76</v>
+      </c>
+      <c r="F2" s="10">
         <v>7955.6</v>
       </c>
-      <c r="G2" s="6">
-        <v>13.08</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>82</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>35</v>
+      <c r="G2" s="3">
+        <v>26.16</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>462</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="8">
         <v>42085</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3">
         <v>888</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>827.36</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>60.64</v>
       </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
         <v>7955.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>81</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>35</v>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>461</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="8">
         <v>42064</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3">
         <v>20.21</v>
       </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
         <v>20.21</v>
       </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
         <v>8782.9599999999991</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>79</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>35</v>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>459</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="8">
         <v>42057</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="7">
         <v>1388</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>1217.04</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>170.96</v>
       </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
         <v>8782.9599999999991</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>77</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>35</v>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>457</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C6" s="8">
         <v>42005</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7">
         <v>10000</v>
       </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
         <v>10000</v>
       </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
